--- a/app/plugins/lesCollections/assets/import_mapping/mapping_lescollections.xlsx
+++ b/app/plugins/lesCollections/assets/import_mapping/mapping_lescollections.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="26980" windowHeight="14340"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162912"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="111">
   <si>
     <t>Rule type</t>
   </si>
@@ -60,6 +55,72 @@
     <t>ca_objects.type_id</t>
   </si>
   <si>
+    <t>ca_objects.dom_antiq</t>
+  </si>
+  <si>
+    <t>{ "restrictToTypes": "antique" }</t>
+  </si>
+  <si>
+    <t>ca_objects.dom_archi</t>
+  </si>
+  <si>
+    <t>{ "restrictToTypes": "archi" }</t>
+  </si>
+  <si>
+    <t>ca_objects.dom_art</t>
+  </si>
+  <si>
+    <t>{ "restrictToTypes": "art" }</t>
+  </si>
+  <si>
+    <t>ca_objects.dom_col</t>
+  </si>
+  <si>
+    <t>{ "restrictToTypes": "collection" }</t>
+  </si>
+  <si>
+    <t>ca_objects.dom_img</t>
+  </si>
+  <si>
+    <t>{ "restrictToTypes": "imgson" }</t>
+  </si>
+  <si>
+    <t>ca_objects.dom_jo</t>
+  </si>
+  <si>
+    <t>{ "restrictToTypes": "bijou" }</t>
+  </si>
+  <si>
+    <t>ca_objects.dom_impr</t>
+  </si>
+  <si>
+    <t>{ "restrictToTypes": "manuimpri" }</t>
+  </si>
+  <si>
+    <t>ca_objects.dom_mob</t>
+  </si>
+  <si>
+    <t>{ "restrictToTypes": "mobilier" }</t>
+  </si>
+  <si>
+    <t>ca_objects.dom_nat</t>
+  </si>
+  <si>
+    <t>{ "restrictToTypes": "nature" }</t>
+  </si>
+  <si>
+    <t>ca_objects.dom_sci</t>
+  </si>
+  <si>
+    <t>{ "restrictToTypes": "scitech" }</t>
+  </si>
+  <si>
+    <t>ca_objects.dom_trib</t>
+  </si>
+  <si>
+    <t>{ "restrictToTypes": "tribalethno" }</t>
+  </si>
+  <si>
     <t>ca_objects.idno</t>
   </si>
   <si>
@@ -81,6 +142,9 @@
     <t>Label</t>
   </si>
   <si>
+    <t>{"skipIfEmpty": 1}</t>
+  </si>
+  <si>
     <t>ca_objects.nonpreferred_labels.type_id</t>
   </si>
   <si>
@@ -93,7 +157,7 @@
     <t>entitySplitter</t>
   </si>
   <si>
-    <t>{ "relationshipType": "^10", "entityType":"^11"}</t>
+    <t>{ "relationshipType": "^11", "entityType":"^12", "entityTypeDefault":"individual"}</t>
   </si>
   <si>
     <t>ca_objects.work_dimensions.dimensions_width</t>
@@ -114,12 +178,27 @@
     <t>ca_objects.mat_et_techniques.materiau</t>
   </si>
   <si>
-    <t>Mat_et_tech</t>
+    <t>{ "delimiter": "," , "skipIfEmpty": 1 }</t>
   </si>
   <si>
     <t>ca_objects.mat_et_techniques.tech</t>
   </si>
   <si>
+    <t>{ "delimiter": "," , "skipIfEmpty": 1 }</t>
+  </si>
+  <si>
+    <t>ca_objects.inscriptions.inscription_type</t>
+  </si>
+  <si>
+    <t>Inscription</t>
+  </si>
+  <si>
+    <t>ca_objects.inscriptions.inscription_place</t>
+  </si>
+  <si>
+    <t>ca_objects.inscriptions.inscription_transcription</t>
+  </si>
+  <si>
     <t>ca_objects.date.dates_value</t>
   </si>
   <si>
@@ -180,6 +259,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>Feuille de correspondances </t>
+  </si>
+  <si>
     <t>Human readable name of the mapping</t>
   </si>
   <si>
@@ -189,6 +271,9 @@
     <t>code</t>
   </si>
   <si>
+    <t>mapping_lescollections</t>
+  </si>
+  <si>
     <t>Alphanumeric code of the mapping</t>
   </si>
   <si>
@@ -231,7 +316,7 @@
     <t>existingRecordPolicy</t>
   </si>
   <si>
-    <t>skip_on_idno_and_preferred_labels</t>
+    <t>merge_on_idno</t>
   </si>
   <si>
     <t>Determines how existing records are checked for and handled for the mapping</t>
@@ -262,19 +347,13 @@
   </si>
   <si>
     <t>Set to yes to save the data spreadsheet or no to delete it from the server after import</t>
-  </si>
-  <si>
-    <t>Import excel lesCollections</t>
-  </si>
-  <si>
-    <t>import_excel_lescollections</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,7 +479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,18 +664,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -655,19 +734,22 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
         <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,13 +757,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,10 +771,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -700,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -714,13 +799,13 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,10 +813,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -739,16 +827,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -756,13 +841,13 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -770,13 +855,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -784,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -798,13 +883,10 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -812,13 +894,13 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -826,318 +908,512 @@
         <v>11</v>
       </c>
       <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
+    <row r="55" spans="1:5">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
         <v>81</v>
       </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D56" t="s">
         <v>82</v>
       </c>
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35">
+      <c r="E56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>79</v>
       </c>
-      <c r="D39" t="s">
-        <v>80</v>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/app/plugins/lesCollections/assets/import_mapping/mapping_lescollections.xlsx
+++ b/app/plugins/lesCollections/assets/import_mapping/mapping_lescollections.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="28040" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162912"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -259,9 +264,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Feuille de correspondances </t>
-  </si>
-  <si>
     <t>Human readable name of the mapping</t>
   </si>
   <si>
@@ -347,18 +349,44 @@
   </si>
   <si>
     <t>Set to yes to save the data spreadsheet or no to delete it from the server after import</t>
+  </si>
+  <si>
+    <t>Import depuis tableur (XLSX)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -379,13 +407,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,7 +512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -656,7 +689,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -664,52 +697,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1144,7 +1179,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1193,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +1207,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1186,7 +1221,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1200,7 +1235,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1246,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1222,7 +1257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1233,7 +1268,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1244,176 +1279,182 @@
         <v>73</v>
       </c>
     </row>
+    <row r="43" spans="1:5">
+      <c r="B43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
         <v>79</v>
       </c>
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" t="s">
-        <v>90</v>
-      </c>
-      <c r="E58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="B54" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C54" t="s">
         <v>108</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D54" t="s">
         <v>109</v>
-      </c>
-      <c r="D64" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>